--- a/NformTester/NformTester/Keywordscripts/400.30.90_NformStatusBeforeRegistratoion.xlsx
+++ b/NformTester/NformTester/Keywordscripts/400.30.90_NformStatusBeforeRegistratoion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -3799,9 +3799,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -3864,10 +3861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MainFormTitle</t>
   </si>
   <si>
@@ -3896,6 +3889,14 @@
   </si>
   <si>
     <t>Administrator - Liebert® Nform [UNREGISTERED]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4427,7 +4428,7 @@
   <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4444,10 +4445,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>815</v>
@@ -4488,16 +4489,16 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>846</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4512,16 +4513,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -4531,13 +4532,13 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>841</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>842</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -4546,16 +4547,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>849</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>850</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>254</v>
@@ -4576,7 +4577,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B5" s="8">
         <v>41843</v>
@@ -4585,25 +4586,25 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>863</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>865</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4612,16 +4613,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>853</v>
-      </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>812</v>
@@ -4629,10 +4630,10 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J6" s="17" t="b">
         <v>0</v>
@@ -4653,7 +4654,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>812</v>
@@ -4661,10 +4662,10 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="9" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J7" s="17" t="b">
         <v>0</v>
@@ -4676,7 +4677,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4696,7 +4697,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -29518,39 +29519,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>847</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>849</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B5" s="8">
         <v>41732</v>
@@ -29558,10 +29559,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>852</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -29574,13 +29575,13 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B9" s="3"/>
     </row>
